--- a/public/files/Data_By_Towns_Index/Gloucester/Glassboro Borough.xlsx
+++ b/public/files/Data_By_Towns_Index/Gloucester/Glassboro Borough.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Owner Name</t>
@@ -454,9 +459,19 @@
           <t>Search</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,9 +494,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>39.7131715</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-75.1375043</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,9 +525,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>39.6999185</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-75.1288311</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,9 +556,15 @@
           <t>Kapadia</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>39.6992019</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-75.1020982</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,9 +587,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>39.7092851</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-75.1289369</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,9 +618,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>39.7014526</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-75.1072174</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -604,9 +649,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>39.704144</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-75.094532</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -629,9 +680,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>39.704144</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-75.094532</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -654,9 +711,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>39.721506</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-75.111392</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -679,9 +742,11 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -704,9 +769,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F11" t="n">
+        <v>39.7024789</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-75.092845</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -729,9 +800,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F12" t="n">
+        <v>39.7024789</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-75.092845</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -754,9 +831,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F13" t="n">
+        <v>39.7018663</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-75.09411729999999</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -779,9 +862,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F14" t="n">
+        <v>39.7018663</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-75.09411729999999</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -804,9 +893,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F15" t="n">
+        <v>39.704144</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-75.094532</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -829,9 +924,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F16" t="n">
+        <v>39.704144</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-75.094532</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -854,9 +955,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F17" t="n">
+        <v>39.696749</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-75.1551537</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -879,9 +986,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F18" t="n">
+        <v>39.7080628</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-75.10522069999999</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -904,9 +1017,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F19" t="n">
+        <v>39.656001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-75.09152220000001</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -929,9 +1048,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F20" t="n">
+        <v>39.71003109999999</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-75.0983069</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -954,9 +1079,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F21" t="n">
+        <v>39.7014589</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-75.1327531</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -979,9 +1110,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F22" t="n">
+        <v>39.6975566</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-75.1534094</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1004,9 +1141,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F23" t="n">
+        <v>39.7056344</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-75.1059413</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1029,9 +1172,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F24" t="n">
+        <v>39.6982843</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-75.15233769999999</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1054,9 +1203,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F25" t="n">
+        <v>39.6996111</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-75.1528393</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1079,9 +1234,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F26" t="n">
+        <v>39.702544</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-75.0928799</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1104,9 +1265,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F27" t="n">
+        <v>39.702544</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-75.0928799</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1129,9 +1296,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F28" t="n">
+        <v>39.704144</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-75.094532</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1154,9 +1327,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F29" t="n">
+        <v>39.704144</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-75.094532</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1179,9 +1358,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F30" t="n">
+        <v>39.7020546</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-75.09528399999999</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1204,9 +1389,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F31" t="n">
+        <v>39.7020546</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-75.09528399999999</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1229,9 +1420,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F32" t="n">
+        <v>39.7031982</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-75.0934405</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1254,9 +1451,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F33" t="n">
+        <v>39.7031982</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-75.0934405</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1279,9 +1482,15 @@
           <t>Thakkar</t>
         </is>
       </c>
+      <c r="F34" t="n">
+        <v>39.7016929</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-75.11477549999999</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1304,9 +1513,15 @@
           <t>Thakkar</t>
         </is>
       </c>
+      <c r="F35" t="n">
+        <v>39.7129819</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-75.12662899999999</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1329,9 +1544,15 @@
           <t>Thakkar</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>39.71308399999999</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-75.125838</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1354,9 +1575,11 @@
           <t>Vyas</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1379,9 +1602,11 @@
           <t>Vyas</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1404,9 +1629,15 @@
           <t>Chauhan</t>
         </is>
       </c>
+      <c r="F39" t="n">
+        <v>39.6987811</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-75.15252009999999</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1429,9 +1660,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F40" t="n">
+        <v>39.702243</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-75.0933529</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1453,6 +1690,12 @@
         <is>
           <t>Parikh</t>
         </is>
+      </c>
+      <c r="F41" t="n">
+        <v>39.702243</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-75.0933529</v>
       </c>
     </row>
   </sheetData>
